--- a/BalanceSheet/CPRT_bal.xlsx
+++ b/BalanceSheet/CPRT_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-1513000.0</v>
+        <v>30000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-8259000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>139000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-1556000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1055000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>19482000.0</v>
@@ -1810,19 +1810,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-32839000.0</v>
+        <v>324000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>42880000.0</v>
+        <v>360000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>57284000.0</v>
+        <v>133000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-40498000.0</v>
+        <v>251000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>8275000.0</v>
+        <v>297000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>289247000.0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3203000.0</v>
+        <v>81000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>6239000.0</v>
+        <v>78000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>13817000.0</v>
+        <v>71000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2546000.0</v>
+        <v>57000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1880000.0</v>
+        <v>55000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>92643000.0</v>
